--- a/biology/Botanique/Cirse_acaule/Cirse_acaule.xlsx
+++ b/biology/Botanique/Cirse_acaule/Cirse_acaule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Cirsium acaule
 Le cirse acaule (Cirsium acaule) est une espèce de plante à fleurs appartenant au genre Cirsium et à la famille des Astéracées (ou Composées).
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante bisannuelle ou vivace qui pousse en montagne et en plaine, dans les prés ou les pâturages, le plus souvent sur sol calcaire. L'adjectif acaule signifie qu'elle n'a pas de tige, ou une tige insignifiante. Longues feuilles d'un vert assez foncé, en rosette étalée, pennatilobées et très épineuses. Capitule pourpre solitaire. Bractées de l'involucre dressées, à pointe rougeâtre peu épineuse. La plante, qui fleurit jusqu'à l'automne, est abondamment pollinisée par les abeilles.
 </t>
@@ -544,7 +558,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence capitule simple
